--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>Tenant</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SwitchNode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EncapVlan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>201-202</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EPG_API_TEST_002</t>
   </si>
   <si>
@@ -89,6 +81,22 @@
   </si>
   <si>
     <t>3804</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switch1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switch2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -452,12 +460,13 @@
     <col min="3" max="3" width="18.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="14.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,102 +483,117 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
